--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2156103.465182832</v>
+        <v>2262758.788334101</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.946211476</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5934799.933489563</v>
+        <v>6347056.926563977</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>65.04649299074264</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>58.85436864659777</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>44.28391178233024</v>
       </c>
       <c r="S4" t="n">
-        <v>78.15198884251041</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>333.4191839581966</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -905,16 +907,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>147.8492222171722</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>32.54055174409329</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>46.16191430098121</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1148,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>279.9348662230869</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1296,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>110.8471439350443</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1342,7 +1344,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1351,13 +1353,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>122.7680463103627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
-        <v>66.06952767882429</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068499</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>18.79193550549795</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1543,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1585,16 +1587,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.8277938782409</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.9558864142199</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.631722686831</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864476</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>123.0673923170404</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>60.64582998875628</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1850,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2002,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>51.69511841098215</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>213.1087574997592</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U20" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>69.70658994605395</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>34.21516834031334</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>165.5938898061686</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="C28" t="n">
-        <v>146.7855775533106</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2953,10 +2955,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>98.15366458399308</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3193,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>10.02059770683782</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3241,7 +3243,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>146.7855775533106</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>226.5878864637942</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>1.448947331648444</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3718,13 +3720,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>189.8139799415889</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>175.4563972938049</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3904,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>123.9614865446926</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>12.82988994717986</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>249.0416171555501</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439306</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,19 +4137,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>59.93143566197608</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1235.878926328994</v>
+        <v>168.7534004685721</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.018600382698</v>
+        <v>145.8930745222762</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.766383608102</v>
+        <v>126.6408577476806</v>
       </c>
       <c r="E2" t="n">
-        <v>767.7894437559598</v>
+        <v>104.7043219359422</v>
       </c>
       <c r="F2" t="n">
-        <v>746.7056659857641</v>
+        <v>39.00079366246479</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>549.9383681074144</v>
+        <v>880.2445183516419</v>
       </c>
       <c r="L2" t="n">
-        <v>549.9383681074144</v>
+        <v>880.2445183516419</v>
       </c>
       <c r="M2" t="n">
-        <v>549.9383681074144</v>
+        <v>882.5260259873598</v>
       </c>
       <c r="N2" t="n">
-        <v>549.9383681074144</v>
+        <v>882.5260259873598</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1361.464950229789</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1361.464950229789</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1817.550429733972</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>1830.739470489015</v>
       </c>
       <c r="T2" t="n">
-        <v>2061.095101116731</v>
+        <v>1609.813899533648</v>
       </c>
       <c r="U2" t="n">
-        <v>2061.095101116731</v>
+        <v>1351.45899013006</v>
       </c>
       <c r="V2" t="n">
-        <v>2061.095101116731</v>
+        <v>993.9695752563096</v>
       </c>
       <c r="W2" t="n">
-        <v>1664.703751417078</v>
+        <v>597.5782255566564</v>
       </c>
       <c r="X2" t="n">
-        <v>1252.983752584825</v>
+        <v>185.8582267244037</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.68688658012</v>
+        <v>184.5613607196981</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000789</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>46.14877825422933</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>756.3555336978366</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>756.3555336978366</v>
+        <v>796.7851917762493</v>
       </c>
       <c r="M3" t="n">
-        <v>756.3555336978366</v>
+        <v>1275.724116018678</v>
       </c>
       <c r="N3" t="n">
-        <v>756.3555336978366</v>
+        <v>1275.724116018678</v>
       </c>
       <c r="O3" t="n">
-        <v>756.3555336978366</v>
+        <v>1754.663040261107</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1754.663040261107</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.5008004748155</v>
+        <v>955.6750519694078</v>
       </c>
       <c r="C4" t="n">
-        <v>620.5282373537315</v>
+        <v>783.7024888483238</v>
       </c>
       <c r="D4" t="n">
-        <v>620.5282373537315</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="E4" t="n">
-        <v>454.3200315065851</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>38.71266663274076</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>393.4019879271615</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>784.5877828974124</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1162.079293773448</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.507422453211</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375112</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="S4" t="n">
-        <v>2098.931236278327</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="T4" t="n">
-        <v>1855.591888504227</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="U4" t="n">
-        <v>1575.407440004532</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.69597261256</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.843568785073</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="X4" t="n">
-        <v>1018.843568785073</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="Y4" t="n">
-        <v>792.5008004748155</v>
+        <v>1145.841020681474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595574</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4568,25 +4570,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4598,19 +4600,19 @@
         <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1542.1289725064</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1145.737622806746</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>1138.058028014898</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106834</v>
+        <v>1274.797602306257</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>287.7093087981016</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>838.3748437825398</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L6" t="n">
-        <v>838.3748437825398</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>838.3748437825398</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.3148479467989</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="C7" t="n">
-        <v>556.3422848257148</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D7" t="n">
-        <v>393.0255119524855</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4738,37 +4740,37 @@
         <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688276</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1701.387456188581</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V7" t="n">
-        <v>1419.67598879661</v>
+        <v>1717.770047630966</v>
       </c>
       <c r="W7" t="n">
-        <v>1144.823584969123</v>
+        <v>1442.917643803479</v>
       </c>
       <c r="X7" t="n">
-        <v>1144.823584969123</v>
+        <v>1200.353747249284</v>
       </c>
       <c r="Y7" t="n">
-        <v>918.4808166588646</v>
+        <v>974.0109789390265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>427.7981182481856</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>404.9377923018898</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>385.6855755272941</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4805,19 +4807,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>1130.408973674147</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>847.6464825397156</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>602.6104029955975</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>602.6104029955975</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1153.275937980036</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>1703.941472964474</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>645.7643351504313</v>
+        <v>738.2594066832694</v>
       </c>
       <c r="C10" t="n">
-        <v>473.7917720293473</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="D10" t="n">
-        <v>310.474999156118</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="E10" t="n">
-        <v>144.2667933089716</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4990,22 +4992,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W10" t="n">
-        <v>1202.502328002917</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X10" t="n">
-        <v>959.9384314487219</v>
+        <v>928.425375395335</v>
       </c>
       <c r="Y10" t="n">
-        <v>835.9303038624969</v>
+        <v>928.425375395335</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1810.151852030363</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1743.414955385085</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.122334570086</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>894.1453947179433</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>469.0212129073435</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>64.68215049679212</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679212</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679212</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2381.073683267896</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3116.551189957703</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957703</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957703</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957703</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839606</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2975.752615436018</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2618.263200562268</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.871850862615</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>1810.151852030363</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1810.151852030363</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168785</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679212</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679212</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>64.68215049679212</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N12" t="n">
-        <v>356.7304516410014</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O12" t="n">
-        <v>1157.172064038804</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.8724629358014</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C13" t="n">
-        <v>975.8907098999449</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267156</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795691</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483617</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209501</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.19675910049</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976526</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656289</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.71561057819</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.677127506125</v>
       </c>
       <c r="S13" t="n">
-        <v>2074.960130429055</v>
+        <v>2065.54208002526</v>
       </c>
       <c r="T13" t="n">
-        <v>1831.620782654955</v>
+        <v>1822.202732251159</v>
       </c>
       <c r="U13" t="n">
-        <v>1551.43633415526</v>
+        <v>1542.018283751464</v>
       </c>
       <c r="V13" t="n">
-        <v>1269.724866763288</v>
+        <v>1542.018283751464</v>
       </c>
       <c r="W13" t="n">
-        <v>994.8724629358014</v>
+        <v>1267.165879923977</v>
       </c>
       <c r="X13" t="n">
-        <v>994.8724629358014</v>
+        <v>1104.713562875248</v>
       </c>
       <c r="Y13" t="n">
-        <v>994.8724629358014</v>
+        <v>878.3707945649905</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1339.075892974534</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1339.075892974534</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D14" t="n">
-        <v>915.7832721595344</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E14" t="n">
-        <v>489.8063323073919</v>
+        <v>1264.531207409476</v>
       </c>
       <c r="F14" t="n">
-        <v>64.68215049679212</v>
+        <v>839.4070255988759</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679212</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679212</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>1943.235529686989</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N14" t="n">
-        <v>1943.235529686989</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>1952.186431295592</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.46571045352</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957703</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712746</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.81465975738</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353792</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2650.459750353792</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2254.068400654139</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>1842.348401821886</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1437.011131776776</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168785</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679212</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>865.1237628945946</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>1665.565375292397</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.565375292397</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>1665.565375292397</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1277.773562976142</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="C16" t="n">
-        <v>1153.463065686202</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D16" t="n">
-        <v>1153.463065686202</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E16" t="n">
-        <v>1153.463065686202</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F16" t="n">
-        <v>1153.463065686202</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>1153.463065686202</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>1153.463065686202</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>1053.694497426478</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>1111.185825650636</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>1337.713426856473</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>1692.402748150894</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>2083.588543121145</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>2461.08005399718</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2816.508182676943</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>3107.107394598844</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>3234.107524839606</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>3187.068911526779</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>3016.933864045914</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2773.594516271814</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>2493.410067772118</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>2211.698600380147</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>1936.84619655266</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X16" t="n">
-        <v>1694.282299998465</v>
+        <v>924.1959984019542</v>
       </c>
       <c r="Y16" t="n">
-        <v>1467.939531688207</v>
+        <v>697.8532300916962</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>4006.096290254794</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4714.375569412722</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5549,13 +5551,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5598,10 +5600,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1085.715267670341</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5698,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1992.33777973203</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1992.33777973203</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1717.485375904543</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1275.881236382407</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,22 +5755,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5838,19 +5840,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5938,22 +5940,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2030.981303923938</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1749.269836531967</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1474.41743270448</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1231.853536150285</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1231.853536150285</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6069,22 +6071,22 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>855.0038060102931</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>855.0038060102931</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M24" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6190,7 +6192,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6229,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6300,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>516.5477476675582</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C28" t="n">
-        <v>368.279487512699</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D28" t="n">
-        <v>368.279487512699</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6461,13 +6463,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
         <v>2011.818868109901</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3205.84032174079</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>3033.867758619706</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>2934.722642878299</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036462</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4421.476826536767</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4139.765359144795</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>3864.912955317308</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>3622.349058763114</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>3396.006290452855</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6789,16 +6791,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.947609078273</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C34" t="n">
-        <v>707.975045957189</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D34" t="n">
-        <v>544.6582730839597</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>378.4500672368132</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>378.4500672368132</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>212.1930975310453</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1587.529878172021</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1312.677474344533</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1070.113577790339</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>1070.113577790339</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,37 +6937,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>368.279487512699</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>2112.580693338092</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1830.869225946121</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1601.992572952389</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
         <v>839.4070255988736</v>
@@ -7184,16 +7186,16 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982686</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291426</v>
@@ -7208,13 +7210,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1019.226866224298</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C40" t="n">
-        <v>847.2543031032135</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9375302299842</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="E40" t="n">
-        <v>517.7293243828377</v>
+        <v>441.8850405003172</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573982</v>
+        <v>270.0232662748776</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>103.7662965691098</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7357,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1712.153331232334</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1520.422038362042</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W40" t="n">
-        <v>1245.569634534555</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X40" t="n">
-        <v>1245.569634534555</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y40" t="n">
-        <v>1019.226866224298</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1319.214563709043</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>892.3138337223432</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>469.0212129073435</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>469.0212129073435</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>64.6821504967921</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>64.6821504967921</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.6821504967921</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>64.6821504967921</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>865.1237628945944</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>1665.565375292397</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N41" t="n">
-        <v>1952.186431295591</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>1952.186431295591</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>2660.465710453519</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957702</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839605</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712745</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>2952.511546577589</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>2952.511546577589</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2952.511546577589</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2556.120196877936</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2144.400198045683</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1739.062928000573</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282473</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457521</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610371</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339743</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168785</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.6821504967921</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>64.6821504967921</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>64.6821504967921</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L42" t="n">
-        <v>64.6821504967921</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M42" t="n">
-        <v>64.6821504967921</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N42" t="n">
-        <v>64.6821504967921</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>865.1237628945944</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1581.321479933092</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950177</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.73265094831</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>566.1796923382518</v>
+        <v>3666.855944130191</v>
       </c>
       <c r="C43" t="n">
-        <v>394.2071292171678</v>
+        <v>3494.883381009107</v>
       </c>
       <c r="D43" t="n">
-        <v>230.8903563439385</v>
+        <v>3331.566608135878</v>
       </c>
       <c r="E43" t="n">
-        <v>64.6821504967921</v>
+        <v>3331.566608135878</v>
       </c>
       <c r="F43" t="n">
-        <v>64.6821504967921</v>
+        <v>3159.704833910439</v>
       </c>
       <c r="G43" t="n">
-        <v>64.6821504967921</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="H43" t="n">
-        <v>64.6821504967921</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I43" t="n">
-        <v>64.6821504967921</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209501</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S43" t="n">
-        <v>2074.960130429055</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T43" t="n">
-        <v>2062.000645633924</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U43" t="n">
-        <v>1781.816197134228</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.104729742257</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="W43" t="n">
-        <v>1225.25232591477</v>
+        <v>4099.585809396452</v>
       </c>
       <c r="X43" t="n">
-        <v>982.6884293605754</v>
+        <v>3857.021912842257</v>
       </c>
       <c r="Y43" t="n">
-        <v>756.3456610503174</v>
+        <v>3857.021912842257</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2456.769745674324</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2029.869015687625</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1606.576394872625</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1180.599455020482</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>755.4752732098825</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>351.1362107993311</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332089</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1142.793917289187</v>
+        <v>1715.812045848769</v>
       </c>
       <c r="M44" t="n">
-        <v>1515.667965162098</v>
+        <v>2720.098147267828</v>
       </c>
       <c r="N44" t="n">
-        <v>2316.1095775599</v>
+        <v>3696.349205754529</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957702</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957702</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957702</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839605</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839605</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839605</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839605</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2876.618109965854</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2876.618109965854</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2876.618109965854</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2876.618109965854</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282473</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457521</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610371</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339743</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168785</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H45" t="n">
-        <v>64.6821504967921</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I45" t="n">
-        <v>64.6821504967921</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J45" t="n">
-        <v>272.4865562816975</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K45" t="n">
-        <v>272.4865562816975</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L45" t="n">
-        <v>272.4865562816975</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M45" t="n">
-        <v>272.4865562816975</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="N45" t="n">
-        <v>1072.9281686795</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>4195.92931772239</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>4650.990193428647</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950177</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.73265094831</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>3341.604252503097</v>
       </c>
       <c r="C46" t="n">
-        <v>975.8907098999449</v>
+        <v>3341.604252503097</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267156</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795691</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483617</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I46" t="n">
-        <v>64.6821504967921</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209501</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S46" t="n">
-        <v>2245.09517790992</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T46" t="n">
-        <v>2245.09517790992</v>
+        <v>4837.425205798769</v>
       </c>
       <c r="U46" t="n">
-        <v>2245.09517790992</v>
+        <v>4557.240757299073</v>
       </c>
       <c r="V46" t="n">
-        <v>2081.788310425034</v>
+        <v>4275.529289907102</v>
       </c>
       <c r="W46" t="n">
-        <v>1806.935906597547</v>
+        <v>4000.676886079615</v>
       </c>
       <c r="X46" t="n">
-        <v>1564.372010043352</v>
+        <v>3758.11298952542</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>3531.770221215162</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0440798263965</v>
+        <v>519.5412919487779</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>39.73581606682369</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>521.1676505099927</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8058,25 +8060,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>459.4832504061476</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681981</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662966</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761908</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>33.56260952838963</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217031127</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>300.5986134498011</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>258.7570141181234</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>177.6973456537768</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8316,7 +8318,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8386,7 +8388,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961657</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8453,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>298.7878524343791</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8538,22 +8540,22 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>172.5227428869331</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425244</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093333</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>780.1861952483924</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>316.3413121975915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>831.6987709321237</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>185.6255543726317</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8933,13 +8935,13 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093333</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>967.5075822902267</v>
       </c>
       <c r="O14" t="n">
-        <v>46.43227411218884</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8948,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9011,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0419679241311</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222295</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>279.6168721116282</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>231.6742813916011</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9182,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>322.1890847023786</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9401,10 +9403,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>586.4197136125407</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9419,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>1043.774157741933</v>
       </c>
       <c r="N21" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9717,25 +9719,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>508.2614594140137</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>208.3123223574469</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9972,7 +9974,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>35.76460079480934</v>
@@ -10358,7 +10360,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>632.4842746885297</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10437,19 +10439,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>949.8342934347922</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10595,7 +10597,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>489.184786214375</v>
+        <v>632.4842746885287</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10604,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>299.9167405677024</v>
       </c>
       <c r="M36" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>855.4509062314398</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>859.1289664256981</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425242</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>845.958144109333</v>
+        <v>877.2336749314286</v>
       </c>
       <c r="N41" t="n">
-        <v>326.795841019491</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11151,16 +11153,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321235</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>317.7453222730285</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,22 +11302,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>579.1176643018616</v>
       </c>
       <c r="M44" t="n">
-        <v>414.071715296312</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443473</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659254</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>230.5145545201065</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11385,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234429</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>831.6987709321235</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131694</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>356.5621950080086</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23418,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>151.4609019843752</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>79.31046371041199</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>318.6939942343948</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>47.18544517283274</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>179.4924275998966</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.8510053776928</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>27.02950008889374</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>243.1674356743854</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.658947683704582</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24379,7 +24381,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="C28" t="n">
-        <v>23.46725993656258</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24619,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>63.52994056050392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>132.3377081000893</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>41.47873147163443</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>45.51599332541787</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.9093584752787</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>89.08037277646253</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>43.25991795200824</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>40.63291346401758</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>228.0760643491791</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>45.84807758515538</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>180.9745186343829</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>550066.3909202105</v>
+        <v>547837.355310962</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>406918.2946653322</v>
+        <v>548775.7030176546</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>406918.2946653321</v>
+        <v>548775.7030176548</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>548775.7030176547</v>
+        <v>548775.7030176546</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>548775.7030176548</v>
+        <v>548775.7030176547</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>406918.2946653321</v>
+        <v>548775.7030176547</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>406918.2946653321</v>
+        <v>548775.7030176548</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495076.2678094888</v>
+        <v>495076.2678094885</v>
       </c>
       <c r="C2" t="n">
-        <v>495076.2678094888</v>
+        <v>495076.2678094887</v>
       </c>
       <c r="D2" t="n">
-        <v>495076.2678094888</v>
+        <v>495076.2678094889</v>
       </c>
       <c r="E2" t="n">
-        <v>354248.1352023341</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="F2" t="n">
-        <v>354248.135202334</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="G2" t="n">
         <v>477725.8426668305</v>
       </c>
       <c r="H2" t="n">
+        <v>477725.8426668306</v>
+      </c>
+      <c r="I2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="J2" t="n">
+        <v>477725.8426668301</v>
+      </c>
+      <c r="K2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="L2" t="n">
+        <v>477725.8426668303</v>
+      </c>
+      <c r="M2" t="n">
         <v>477725.8426668305</v>
-      </c>
-      <c r="I2" t="n">
-        <v>477725.8426668303</v>
-      </c>
-      <c r="J2" t="n">
-        <v>477725.8426668303</v>
-      </c>
-      <c r="K2" t="n">
-        <v>477725.8426668305</v>
-      </c>
-      <c r="L2" t="n">
-        <v>477725.8426668302</v>
-      </c>
-      <c r="M2" t="n">
-        <v>477725.8426668302</v>
       </c>
       <c r="N2" t="n">
         <v>477725.8426668305</v>
       </c>
       <c r="O2" t="n">
-        <v>354248.1352023339</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="P2" t="n">
-        <v>354248.135202334</v>
+        <v>477725.8426668302</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361204</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534621</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115406</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701965</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537377</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165375.7390424566</v>
+        <v>179728.0181786382</v>
       </c>
       <c r="C4" t="n">
         <v>165375.7390424566</v>
@@ -26424,22 +26426,22 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>32409.7679961824</v>
+        <v>43748.40045389545</v>
       </c>
       <c r="F4" t="n">
-        <v>32409.7679961824</v>
+        <v>43748.40045389543</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389552</v>
       </c>
       <c r="H4" t="n">
         <v>43748.40045389552</v>
       </c>
       <c r="I4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389557</v>
@@ -26448,16 +26450,16 @@
         <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="N4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>32409.76799618239</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="P4" t="n">
-        <v>32409.7679961824</v>
+        <v>43748.40045389556</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216129</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756199</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756199</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75849.5443148668</v>
+        <v>90182.33073909767</v>
       </c>
       <c r="C6" t="n">
-        <v>262254.277729604</v>
+        <v>238847.444055992</v>
       </c>
       <c r="D6" t="n">
-        <v>262254.277729604</v>
+        <v>262254.2777296042</v>
       </c>
       <c r="E6" t="n">
-        <v>197348.9816751276</v>
+        <v>140488.0234678648</v>
       </c>
       <c r="F6" t="n">
-        <v>272679.9328285896</v>
+        <v>356227.3800245052</v>
       </c>
       <c r="G6" t="n">
-        <v>227336.9802129646</v>
+        <v>356227.3800245053</v>
       </c>
       <c r="H6" t="n">
-        <v>356227.3800245053</v>
+        <v>356227.3800245054</v>
       </c>
       <c r="I6" t="n">
+        <v>356227.380024505</v>
+      </c>
+      <c r="J6" t="n">
+        <v>229650.1114442159</v>
+      </c>
+      <c r="K6" t="n">
+        <v>337580.7796674853</v>
+      </c>
+      <c r="L6" t="n">
         <v>356227.3800245051</v>
       </c>
-      <c r="J6" t="n">
-        <v>210693.7100896886</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>176163.5085693376</v>
+      </c>
+      <c r="N6" t="n">
         <v>356227.3800245052</v>
       </c>
-      <c r="L6" t="n">
-        <v>356227.3800245049</v>
-      </c>
-      <c r="M6" t="n">
-        <v>293353.4430591312</v>
-      </c>
-      <c r="N6" t="n">
-        <v>356227.3800245053</v>
-      </c>
       <c r="O6" t="n">
-        <v>272679.9328285895</v>
+        <v>356227.3800245051</v>
       </c>
       <c r="P6" t="n">
-        <v>272679.9328285897</v>
+        <v>356227.380024505</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099015</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099015</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099013</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099013</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943073</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629553</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943073</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943073</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
+        <v>355.8264470017511</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>159.8619465992154</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.284315397368339</v>
       </c>
       <c r="S4" t="n">
-        <v>90.28170816354609</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>82.23069669041814</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27625,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.4346751274864</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>132.0055720445817</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>232.7324384170702</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>206.2762395340006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.3490311215717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>59.29601254814088</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>101.3112943167926</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34699,22 +34701,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>144.2794790315872</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.304553167391877</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34778,25 +34780,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>10.81557123941113</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771759927011</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>48.74406945557187</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>263.0232516395698</v>
-      </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>238.1458997847901</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>155.2981118204434</v>
+      </c>
+      <c r="L6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977413</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35173,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="P8" t="n">
         <v>263.0232516395698</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>150.7519016821045</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099015</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099015</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>742.9065724139464</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>294.9982839840498</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099015</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35574,7 +35576,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366115</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35653,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099015</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>930.2279594557806</v>
       </c>
       <c r="O14" t="n">
-        <v>9.041314756164738</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35668,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>808.5268812099015</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099015</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>209.9034401867724</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35902,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>286.0644100977806</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>548.1076711799178</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36139,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="N21" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36437,25 +36439,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>485.8622255806804</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>185.2155418451189</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>595.2046518540836</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37157,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>928.4912652212506</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37315,7 +37317,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>451.905163379929</v>
+        <v>595.2046518540826</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37324,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="M36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>818.1712833969938</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696739</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099013</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099013</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="N41" t="n">
-        <v>289.516218185045</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099013</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>294.99828398405</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>540.8056218692387</v>
       </c>
       <c r="M44" t="n">
-        <v>376.6404523968802</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099013</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099013</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>209.9034401867731</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099013</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099013</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>459.6574502083407</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262758.788334101</v>
+        <v>2262062.127129009</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.946211476</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6347056.926563977</v>
+        <v>6347056.926563976</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>183.9766873154841</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>65.04649299074264</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>175.5024969901299</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.28391178233024</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.4191839581966</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,7 +910,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>136.3116454861487</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1065,7 +1065,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>46.16191430098121</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>49.49512077555119</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>50.77901812021</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>110.8471439350443</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>164.2137391963384</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068499</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439306</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1545,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>59.23817311757954</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1587,13 +1587,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.8277938782409</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.631722686831</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864476</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>60.64582998875628</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>51.69511841098215</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>218.008057705788</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.70658994605395</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>165.5938898061686</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>121.2482518332238</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.30362264056416</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2775,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>223.7842969062544</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>168.1487656894605</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486154</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3274,7 +3274,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536231</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3322,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.7855775533106</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>120.2281059240624</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855928</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.9994897974583454</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>1.448947331648444</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.649880648615</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9614865446926</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510685708</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396698</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439306</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>59.93143566197608</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685721</v>
+        <v>1740.295266126906</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222762</v>
+        <v>1313.394536140207</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476806</v>
+        <v>890.1019153252068</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359422</v>
+        <v>464.1249754730645</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246479</v>
+        <v>39.00079366246469</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516419</v>
+        <v>517.641059534745</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516419</v>
+        <v>517.641059534745</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873598</v>
+        <v>517.641059534745</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873598</v>
+        <v>996.5799837771725</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229789</v>
+        <v>1338.611505491539</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229789</v>
+        <v>1817.550429733966</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733972</v>
+        <v>1817.550429733966</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489015</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533648</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.45899013006</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563096</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566564</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="X2" t="n">
-        <v>185.8582267244037</v>
+        <v>1927.42716982402</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196981</v>
+        <v>1926.130303819315</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000789</v>
+        <v>92.07822853000779</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422933</v>
+        <v>46.14877825422922</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>46.14877825422922</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>46.14877825422922</v>
       </c>
       <c r="L3" t="n">
-        <v>796.7851917762493</v>
+        <v>525.0877024966568</v>
       </c>
       <c r="M3" t="n">
-        <v>1275.724116018678</v>
+        <v>525.0877024966568</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018678</v>
+        <v>889.5119173879722</v>
       </c>
       <c r="O3" t="n">
-        <v>1754.663040261107</v>
+        <v>1368.4508416304</v>
       </c>
       <c r="P3" t="n">
-        <v>1754.663040261107</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.6750519694078</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="C4" t="n">
-        <v>783.7024888483238</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3857159750945</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231749</v>
+        <v>38.70213529231738</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231749</v>
+        <v>96.19346351647539</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663274076</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271615</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974124</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773448</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453211</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375112</v>
+        <v>1808.106634375107</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615874</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1890.375540593318</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S4" t="n">
-        <v>1890.375540593318</v>
+        <v>1764.971717135004</v>
       </c>
       <c r="T4" t="n">
-        <v>1647.036192819219</v>
+        <v>1521.632369360904</v>
       </c>
       <c r="U4" t="n">
-        <v>1647.036192819219</v>
+        <v>1241.447920861208</v>
       </c>
       <c r="V4" t="n">
-        <v>1647.036192819219</v>
+        <v>959.7364534692369</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.183788991731</v>
+        <v>684.8840496417499</v>
       </c>
       <c r="X4" t="n">
-        <v>1372.183788991731</v>
+        <v>442.320153087555</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.841020681474</v>
+        <v>215.977384777297</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>938.0105478030287</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>915.1502218567329</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
         <v>44.49822504924753</v>
@@ -4567,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4600,19 +4600,19 @@
         <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102812</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.094468310963</v>
+        <v>1091.507038848244</v>
       </c>
       <c r="Y5" t="n">
-        <v>1274.797602306257</v>
+        <v>953.8185080541547</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>205.6899987133984</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.8450102269608</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>783.8450102269608</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1717.770047630966</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1442.917643803479</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1200.353747249284</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.0109789390265</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4810,16 +4810,16 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>738.2594066832694</v>
+        <v>789.560603642277</v>
       </c>
       <c r="C10" t="n">
-        <v>566.2868435621854</v>
+        <v>617.588040521193</v>
       </c>
       <c r="D10" t="n">
-        <v>566.2868435621854</v>
+        <v>454.2712676479637</v>
       </c>
       <c r="E10" t="n">
-        <v>566.2868435621854</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="W10" t="n">
-        <v>1170.98927194953</v>
+        <v>1388.162932743223</v>
       </c>
       <c r="X10" t="n">
-        <v>928.425375395335</v>
+        <v>1145.599036189028</v>
       </c>
       <c r="Y10" t="n">
-        <v>928.425375395335</v>
+        <v>979.7265723543426</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>2110.0395278175</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P11" t="n">
-        <v>4639.71451561294</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>5095.799995117123</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1748.774177950213</v>
+        <v>1861.413050227143</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1861.413050227143</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1861.413050227143</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.3707945649905</v>
+        <v>838.4387648078721</v>
       </c>
       <c r="C13" t="n">
-        <v>706.3982314439065</v>
+        <v>666.4662016867881</v>
       </c>
       <c r="D13" t="n">
-        <v>706.3982314439065</v>
+        <v>666.4662016867881</v>
       </c>
       <c r="E13" t="n">
-        <v>540.1900255967601</v>
+        <v>500.2579958396416</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>328.396221614202</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>162.1392519084341</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.19675910049</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976526</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656289</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.71561057819</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818951</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.677127506125</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.54208002526</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251159</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751464</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751464</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923977</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X13" t="n">
-        <v>1104.713562875248</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3707945649905</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076618</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261618</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409476</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988759</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2184.700581617281</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.8532300916962</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>697.8532300916962</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>534.5364572184669</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>924.1959984019542</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.8532300916962</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988745</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883231</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2988.069926596603</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596603</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747415</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409526</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5582,31 +5582,31 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G18" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>326.3817789554925</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>326.3817789554925</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J19" t="n">
         <v>159.7940416299866</v>
@@ -5679,7 +5679,7 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M19" t="n">
         <v>1132.196759100495</v>
@@ -5706,19 +5706,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
         <v>2113.800768076616</v>
@@ -5740,64 +5740,64 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>557.3635891120873</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>557.3635891120873</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>742.8905159778161</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C25" t="n">
-        <v>575.6239606180499</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D25" t="n">
-        <v>412.3071877448206</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E25" t="n">
-        <v>246.0989818976742</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>1808.730580298577</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>1808.730580298577</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.730580298577</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.730580298577</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1808.730580298577</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.483482374059</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C28" t="n">
-        <v>268.510919252975</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1081.300685322573</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>838.736788768378</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>612.3940204581201</v>
       </c>
     </row>
     <row r="29">
@@ -6463,19 +6463,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>366.6855125151251</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O29" t="n">
         <v>3833.214576747414</v>
@@ -6554,13 +6554,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
         <v>1364.825557038856</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
         <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109903</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232211</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399958</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354849</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G36" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="M36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="N36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="O36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="P36" t="n">
         <v>1364.825557038856</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.279487512699</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C37" t="n">
-        <v>368.279487512699</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D37" t="n">
-        <v>368.279487512699</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G37" t="n">
         <v>202.0712816655526</v>
@@ -7092,16 +7092,16 @@
         <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M37" t="n">
         <v>1132.196759100495</v>
@@ -7128,19 +7128,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988745</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883231</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I38" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905341</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G39" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="O39" t="n">
-        <v>991.7839914173002</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="P39" t="n">
-        <v>1707.981708455798</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>608.0932463474637</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C40" t="n">
-        <v>608.0932463474637</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D40" t="n">
-        <v>608.0932463474637</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E40" t="n">
-        <v>441.8850405003172</v>
+        <v>412.3559516034421</v>
       </c>
       <c r="F40" t="n">
-        <v>270.0232662748776</v>
+        <v>412.3559516034421</v>
       </c>
       <c r="G40" t="n">
-        <v>103.7662965691098</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M40" t="n">
         <v>1132.196759100495</v>
@@ -7368,16 +7368,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.165879923982</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1024.601983369787</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.2592150595294</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,49 +7399,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.8188681099</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7453,7 +7453,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7493,19 +7493,19 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
         <v>1364.825557038856</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3666.855944130191</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3494.883381009107</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3331.566608135878</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3331.566608135878</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3159.704833910439</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.71574081895</v>
       </c>
       <c r="R43" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.71574081895</v>
       </c>
       <c r="S43" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4374.438213223939</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>4099.585809396452</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>3857.021912842257</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3857.021912842257</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063319</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.80076807662</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.50814726162</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409477</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988775</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883261</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623609</v>
       </c>
       <c r="I44" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813277</v>
       </c>
       <c r="L44" t="n">
-        <v>1715.812045848769</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>2720.098147267828</v>
+        <v>2585.460682495989</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.349205754529</v>
+        <v>3561.71174098269</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905341</v>
+        <v>4406.856391133502</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.13567029143</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.13567029143</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.13567029143</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.76837616457</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209203</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805615</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931865</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232212</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399959</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.54986235485</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731004</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J45" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K45" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="L45" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="M45" t="n">
-        <v>3306.448039710918</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N45" t="n">
-        <v>3306.448039710918</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O45" t="n">
-        <v>4195.92931772239</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>4650.990193428647</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3341.604252503097</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>3341.604252503097</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="D46" t="n">
-        <v>3178.287479629867</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="E46" t="n">
-        <v>3178.287479629867</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="F46" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G46" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>4837.425205798769</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>4557.240757299073</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>4275.529289907102</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>4000.676886079615</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>3758.11298952542</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>3531.770221215162</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487779</v>
+        <v>519.5412919487766</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>39.73581606682369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884133</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099927</v>
+        <v>382.8773449260913</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641985</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8057,31 +8057,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681981</v>
+        <v>506.2917778681968</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662966</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>389.4482957805269</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761908</v>
+        <v>506.9485808761895</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587959</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.56260952838963</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217031127</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836740477</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8224,22 +8224,22 @@
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>177.6973456537768</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8458,7 +8458,7 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8470,7 +8470,7 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>300.5986134498011</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8531,16 +8531,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>467.702658662831</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
@@ -8552,7 +8552,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.17301358442491</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,7 +8698,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>423.2283679410461</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>54.56363491934598</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
@@ -8777,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>185.6255543726317</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>73.75099389838205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N14" t="n">
-        <v>967.5075822902267</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>279.6168721116282</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>765.1769988726438</v>
+        <v>924.3306556055965</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>867.7664080100944</v>
@@ -9254,10 +9254,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>126.4645803159202</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9406,13 +9406,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1043.774157741933</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9497,10 +9497,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>208.3123223574469</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
@@ -9959,10 +9959,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>979.1626539795797</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9974,7 +9974,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.0397288826768</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,13 +10120,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10202,16 +10202,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>196.7283130837754</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,13 +10439,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10594,10 +10594,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377167</v>
       </c>
       <c r="N35" t="n">
-        <v>632.4842746885287</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>299.9167405677024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,16 +10831,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406117</v>
       </c>
       <c r="O38" t="n">
-        <v>859.1289664256981</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.806266097605</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>877.2336749314286</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11141,7 +11141,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>292.2790261091175</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11156,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>579.1176643018616</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806288</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335785</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,10 +11393,10 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>481.4282914131694</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>83.12013268934761</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>79.31046371041199</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>179.4924275998966</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>112.8510053776928</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>22.13019988286487</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.557719078891</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.658947683704582</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24381,10 +24381,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.11005397370334</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.9606863843808</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>48.31958288295772</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.47873147163443</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>157.1544980906363</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>169.2533476924148</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9093584752787</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.63291346401758</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919941</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>180.9745186343829</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>548775.7030176548</v>
+        <v>548775.7030176547</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>548775.7030176546</v>
+        <v>548775.7030176547</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>548775.7030176547</v>
+        <v>548775.7030176546</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>548775.7030176548</v>
+        <v>548775.7030176547</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>548775.7030176547</v>
+        <v>548775.7030176546</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>548775.7030176548</v>
+        <v>548775.7030176547</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495076.2678094885</v>
+        <v>495076.2678094886</v>
       </c>
       <c r="C2" t="n">
+        <v>495076.2678094886</v>
+      </c>
+      <c r="D2" t="n">
         <v>495076.2678094887</v>
       </c>
-      <c r="D2" t="n">
-        <v>495076.2678094889</v>
-      </c>
       <c r="E2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="F2" t="n">
         <v>477725.8426668303</v>
       </c>
       <c r="G2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="H2" t="n">
-        <v>477725.8426668306</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="I2" t="n">
-        <v>477725.8426668302</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="J2" t="n">
         <v>477725.8426668301</v>
       </c>
       <c r="K2" t="n">
+        <v>477725.8426668304</v>
+      </c>
+      <c r="L2" t="n">
         <v>477725.8426668302</v>
-      </c>
-      <c r="L2" t="n">
-        <v>477725.8426668303</v>
       </c>
       <c r="M2" t="n">
         <v>477725.8426668305</v>
       </c>
       <c r="N2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="O2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="P2" t="n">
         <v>477725.8426668303</v>
-      </c>
-      <c r="P2" t="n">
-        <v>477725.8426668302</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695914</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361204</v>
+        <v>23406.83367361247</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,25 +26380,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802889</v>
+        <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701965</v>
+        <v>18646.60035701999</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551676</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179728.0181786382</v>
+        <v>179728.0181786384</v>
       </c>
       <c r="C4" t="n">
         <v>165375.7390424566</v>
@@ -26426,40 +26426,40 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>43748.40045389545</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
-        <v>43748.40045389543</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389552</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389552</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="I4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
         <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389548</v>
       </c>
       <c r="N4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389549</v>
       </c>
       <c r="O4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389546</v>
       </c>
       <c r="P4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389542</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216129</v>
+        <v>63041.2228221612</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842971</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842971</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842973</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90182.33073909767</v>
+        <v>90182.33073909806</v>
       </c>
       <c r="C6" t="n">
-        <v>238847.444055992</v>
+        <v>238847.4440559915</v>
       </c>
       <c r="D6" t="n">
-        <v>262254.2777296042</v>
+        <v>262254.2777296039</v>
       </c>
       <c r="E6" t="n">
-        <v>140488.0234678648</v>
+        <v>140436.9928056802</v>
       </c>
       <c r="F6" t="n">
-        <v>356227.3800245052</v>
+        <v>356176.3493623208</v>
       </c>
       <c r="G6" t="n">
-        <v>356227.3800245053</v>
+        <v>356176.3493623206</v>
       </c>
       <c r="H6" t="n">
-        <v>356227.3800245054</v>
+        <v>356176.349362321</v>
       </c>
       <c r="I6" t="n">
-        <v>356227.380024505</v>
+        <v>356176.3493623207</v>
       </c>
       <c r="J6" t="n">
-        <v>229650.1114442159</v>
+        <v>229599.0807820319</v>
       </c>
       <c r="K6" t="n">
-        <v>337580.7796674853</v>
+        <v>337529.7490053009</v>
       </c>
       <c r="L6" t="n">
-        <v>356227.3800245051</v>
+        <v>356176.3493623207</v>
       </c>
       <c r="M6" t="n">
-        <v>176163.5085693376</v>
+        <v>176112.4779071533</v>
       </c>
       <c r="N6" t="n">
-        <v>356227.3800245052</v>
+        <v>356176.3493623209</v>
       </c>
       <c r="O6" t="n">
-        <v>356227.3800245051</v>
+        <v>356176.3493623207</v>
       </c>
       <c r="P6" t="n">
-        <v>356227.380024505</v>
+        <v>356176.3493623208</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26807,7 +26807,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162557</v>
+        <v>72.45112196162688</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162557</v>
+        <v>72.45112196162688</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162557</v>
+        <v>72.45112196162688</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>231.6731933331307</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>355.8264470017511</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.76181203481514</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.284315397368339</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.23069669041814</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>264.9722518585098</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>232.7324384170702</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27909,7 +27909,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>206.2762395340006</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>350.5048792244486</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>59.29601254814088</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>59.86560143081695</v>
       </c>
     </row>
     <row r="11">
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.173584674658033e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30662,7 +30662,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-3.607826092262841e-12</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-3.481659405224491e-12</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.304553167391877</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539686</v>
+        <v>345.4863855700672</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34777,31 +34777,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539686</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>368.1052675669852</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539686</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539672</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.81557123941113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759927011</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709418285</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34944,22 +34944,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>155.2981118204434</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>432.5378064344753</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35178,7 +35178,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>444.605878150503</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.42597529544641</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,7 +35418,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>385.7971050416143</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>19.53098502454951</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>50.0780745042379</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.1371666366115</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35652,13 +35652,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N14" t="n">
-        <v>930.2279594557806</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>727.745735973212</v>
+        <v>886.8993927061647</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>845.2513212958648</v>
@@ -35974,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>185.2155418451189</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
@@ -36679,10 +36679,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>956.0658734672517</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.2926905936983</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,13 +36840,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37314,10 +37314,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382849</v>
       </c>
       <c r="N35" t="n">
-        <v>595.2046518540826</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,16 +37551,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061656</v>
       </c>
       <c r="O38" t="n">
-        <v>821.7380070696739</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q39" t="n">
-        <v>205.0592278086265</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>839.8024120319968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37861,7 +37861,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>269.8797922757842</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -37958,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391459</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>540.8056218692387</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>846.489508581197</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>928.4912652212505</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>459.6574502083407</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
